--- a/Data/Search/k_fold_results_1HL_hn-e.xlsx
+++ b/Data/Search/k_fold_results_1HL_hn-e.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\Data\Search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{766C6C94-5B2F-40C4-B1D8-493EE6F58AD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A4B331-C999-43B7-8175-DC5E1802BAAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="k_fold_results_1HL_hn-e" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>2_5_15: 0.004991592929029802</t>
   </si>
@@ -140,12 +140,15 @@
   </si>
   <si>
     <t>2_20_600: 0.07312471912496586</t>
+  </si>
+  <si>
+    <t>&lt;---- should be 1HL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -986,11 +989,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,82 +1001,85 @@
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
